--- a/curebound/data/processed/project_titles.xlsx
+++ b/curebound/data/processed/project_titles.xlsx
@@ -1,37 +1,127 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phuro\Biokind\curebound-team\curebound\data\processed\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BE2A0D-6E54-4C15-B064-394C56865D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+  <si>
+    <t>What is the project title?</t>
+  </si>
+  <si>
+    <t>Please describe the way in which your project will lead to an increase in equity.</t>
+  </si>
+  <si>
+    <t>UCSD-UCSF Specialized Program of Research Excellence (SPORE) in Head and Neck Cancer</t>
+  </si>
+  <si>
+    <t>At risk oral cancer patients are often part of a  socioeconomically disadvantaged group</t>
+  </si>
+  <si>
+    <t>A Phase 1B, Nonrandomized Trial Investigating Docetaxel Combined with Cirmtuzumab in Patients with Metastatic Castration Resistant Prostate Cancer</t>
+  </si>
+  <si>
+    <t>Trial focused on all demographic of prostate cancer with unique look at Hispanic individuals.</t>
+  </si>
+  <si>
+    <t>New Therapies for Myeloid Leukemia</t>
+  </si>
+  <si>
+    <t>People from all backgrounds would benefit from this potential therapy.</t>
+  </si>
+  <si>
+    <t>Precision Interception of Gastric Cancers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC affects certain ethnicities much more than others. Impact of our discoveries are expected to track that. </t>
+  </si>
+  <si>
+    <t>Knowledge-based planning and treatment decision-making for gynecologic brachytherapy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currently, under-resourced centers (particularly in third world countries) are not offering brachytherapy, which is partly due to the hospital resources and clinician expertise required for these procedures. The tools developed in this work will improve the ease of this procedure through automation and decision-making guidance, which could allow more centers that lack expertise to offer this very necessary treatment for cervical cancer. </t>
+  </si>
+  <si>
+    <t>Development and Implementation of a Peer-Navigation Intervention to Improve Research Literacy in Pediatric Cancer Trials</t>
+  </si>
+  <si>
+    <t>The navigation intervention could potentially increase clinical trials recruitment specifically in populations experiencing disparities. By increasing minority participation in clinical trials, we can effectively and equally translate discoveries and treatment benefits.</t>
+  </si>
+  <si>
+    <t>Investigating the Efficacy of radium-223 with Olaparib in Men with Metastatic Castration-resistant Prostate Cancer</t>
+  </si>
+  <si>
+    <t>Study made available through the entire ETCTN network for patients across US.</t>
+  </si>
+  <si>
+    <t>Low Dose Chemotherapy for Immuno-activation in Lung Cancer</t>
+  </si>
+  <si>
+    <t>provide an opportunity for access to medicines across socioeconomic strata.</t>
+  </si>
+  <si>
+    <t>Deciphering the role of RNA editing in leukemia stem cell generation and pediatric acute leukemia relapse</t>
+  </si>
+  <si>
+    <t>Understanding ethnic and gender-related differences in patient related splicing and RNA editing as well as APOBEC3 activation will help to improve administration of ADAR1 and APOBEC3 targeted therapies as well as inform the mutagenic potential of lentiviral gene therapy strategies that are used for URM patients ie with sickle cell anemia.</t>
+  </si>
+  <si>
+    <t>If successful, this treatment paradigm has the potential to decrease treatment costs, as well as long term functional and financial toxicity for head and neck cancer patients</t>
+  </si>
+  <si>
+    <t>People of all backgrounds would benefit equally from this research</t>
+  </si>
+  <si>
+    <t>Peptide Targeted Delivery of Epigenetic Therapies in Pancreatic Cancer</t>
+  </si>
+  <si>
+    <t>Currently, under-resourced centers (particularly in developing countries) are not offering brachytherapy, which is partly due to the hospital resources and clinician expertise required for these procedures. The tools developed in this work will improve the ease of this procedure through automation and decision-making guidance, which could allow more centers that lack expertise to offer this very necessary treatment for cervical cancer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brachytherapy to increase cures in cervix cancer </t>
+  </si>
+  <si>
+    <t>The navigator intervention could potentially increase clinical trials recruitment specifically in populations experiencing disparities. By increasing minority participation in clinical trials, we can effectively and equally translate discoveries and treatment benefits.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +136,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,250 +460,187 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="58.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>What is the project title?</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Please describe the way in which your project will lead to an increase in equity.</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
         <v>6</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>UCSD-UCSF Specialized Program of Research Excellence (SPORE) in Head and Neck Cancer</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>At risk oral cancer patients are often part of a  socioeconomically disadvantaged group</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
         <v>8</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>A Phase 1B, Nonrandomized Trial Investigating Docetaxel Combined with Cirmtuzumab in Patients with Metastatic Castration Resistant Prostate Cancer</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Trial focused on all demographic of prostate cancer with unique look at Hispanic individuals.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
         <v>10</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>New Therapies for Myeloid Leukemia</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>People from all backgrounds would benefit from this potential therapy.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
         <v>14</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Precision Interception of Gastric Cancers</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GC affects certain ethnicities much more than others. Impact of our discoveries are expected to track that. </t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
         <v>44</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Knowledge-based planning and treatment decision-making for gynecologic brachytherapy</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Currently, under-resourced centers (particularly in third world countries) are not offering brachytherapy, which is partly due to the hospital resources and clinician expertise required for these procedures. The tools developed in this work will improve the ease of this procedure through automation and decision-making guidance, which could allow more centers that lack expertise to offer this very necessary treatment for cervical cancer. </t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
         <v>63</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Development and Implementation of a Peer-Navigation Intervention to Improve Research Literacy in Pediatric Cancer Trials</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>The navigation intervention could potentially increase clinical trials recruitment specifically in populations experiencing disparities. By increasing minority participation in clinical trials, we can effectively and equally translate discoveries and treatment benefits.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
         <v>73</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Investigating the Efficacy of radium-223 with Olaparib in Men with Metastatic Castration-resistant Prostate Cancer</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Study made available through the entire ETCTN network for patients across US.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
         <v>75</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Low Dose Chemotherapy for Immuno-activation in Lung Cancer</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>provide an opportunity for access to medicines across socioeconomic strata.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
         <v>89</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Deciphering the role of RNA editing in leukemia stem cell generation and pediatric acute leukemia relapse</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Understanding ethnic and gender-related differences in patient related splicing and RNA editing as well as APOBEC3 activation will help to improve administration of ADAR1 and APOBEC3 targeted therapies as well as inform the mutagenic potential of lentiviral gene therapy strategies that are used for URM patients ie with sickle cell anemia.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
         <v>103</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>UCSD-UCSF Specialized Program of Research Excellence (SPORE) in Head and Neck Cancer</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>If successful, this treatment paradigm has the potential to decrease treatment costs, as well as long term functional and financial toxicity for head and neck cancer patients</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
         <v>106</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>New Therapies for Myeloid Leukemia</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>People of all backgrounds would benefit equally from this research</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
         <v>110</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Peptide Targeted Delivery of Epigenetic Therapies in Pancreatic Cancer</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
         <v>152</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Knowledge-based planning and treatment decision-making for gynecologic brachytherapy</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Currently, under-resourced centers (particularly in developing countries) are not offering brachytherapy, which is partly due to the hospital resources and clinician expertise required for these procedures. The tools developed in this work will improve the ease of this procedure through automation and decision-making guidance, which could allow more centers that lack expertise to offer this very necessary treatment for cervical cancer.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
         <v>154</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Knowledge-based planning and treatment decision-making for gynecologic brachytherapy</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brachytherapy to increase cures in cervix cancer </t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
         <v>179</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Development and Implementation of a Peer-Navigation Intervention to Improve Research Literacy in Pediatric Cancer Trials</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>The navigator intervention could potentially increase clinical trials recruitment specifically in populations experiencing disparities. By increasing minority participation in clinical trials, we can effectively and equally translate discoveries and treatment benefits.</t>
-        </is>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
